--- a/data/nomenclature_10_avril_2019.xlsx
+++ b/data/nomenclature_10_avril_2019.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C82CCA6-1B45-4430-934C-0D2D03218AF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8149F809-DB30-4CF0-B66E-12BDC728724D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,12 +1102,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21471459-1224-4B55-A278-FFFC824157EA}" name="Table1" displayName="Table1" ref="A1:C166" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21471459-1224-4B55-A278-FFFC824157EA}" name="Table1" displayName="Table1" ref="A1:C166" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C166" xr:uid="{4F1CDB1C-2E79-4D54-8C07-4EE8488F3903}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DAC97803-7970-43AF-B259-A9E7510C304C}" name="القسم"/>
-    <tableColumn id="2" xr3:uid="{23A98744-9483-4257-A976-993E4288604B}" name="الفصل" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BBFD3351-3B65-43A7-A599-FD6C84C27E2F}" name="معرف_الفصل" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{23A98744-9483-4257-A976-993E4288604B}" name="الفصل" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BBFD3351-3B65-43A7-A599-FD6C84C27E2F}" name="معرف_الفصل" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
